--- a/out/img/core/BR_40_forecast_results_2023.xlsx
+++ b/out/img/core/BR_40_forecast_results_2023.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Forecast Results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Metrics" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -670,4 +671,51 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>MAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>4.552643017253297</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3.409321738172399</v>
+      </c>
+      <c r="C2" t="n">
+        <v>88.26824446727719</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/out/img/core/BR_40_forecast_results_2023.xlsx
+++ b/out/img/core/BR_40_forecast_results_2023.xlsx
@@ -476,18 +476,18 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>580</v>
+        <v>29</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>161127,00</t>
+          <t>161127,0010593,00538,007774,0060,006770,003384,007356,003626,002773,00178514,0011235,00650,009106,0070,007393,003549,005795,003943,001838,00</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>569.1326740422845</v>
+        <v>26.14607303349045</v>
       </c>
       <c r="F2" t="n">
-        <v>10.86732595771548</v>
+        <v>2.853926966509551</v>
       </c>
     </row>
     <row r="3">
@@ -500,18 +500,18 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>480</v>
+        <v>24</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>126255,00</t>
+          <t>126255,009585,00464,006961,0074,006061,003015,006937,004047,002562,00128681,0010226,00554,008069,0084,007386,003207,004682,004220,001441,00</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-232.3244166665913</v>
+        <v>38.14784237954068</v>
       </c>
       <c r="F3" t="n">
-        <v>712.3244166665913</v>
+        <v>-14.14784237954068</v>
       </c>
     </row>
     <row r="4">
@@ -524,18 +524,18 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>620</v>
+        <v>31</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>127829,00</t>
+          <t>127829,0011477,00490,008237,0080,008008,003926,008547,005320,003277,00129739,0012235,00542,009453,0092,009249,003988,006065,005105,001957,00</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1368.068581710136</v>
+        <v>108.6254665744467</v>
       </c>
       <c r="F4" t="n">
-        <v>-748.0685817101357</v>
+        <v>-77.62546657444673</v>
       </c>
     </row>
     <row r="5">
@@ -548,18 +548,18 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>580</v>
+        <v>29</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>145386,00</t>
+          <t>145386,0010193,00506,007687,0086,007177,003409,007450,004699,002948,00145202,0010947,00566,008784,0087,007818,003630,005537,005182,001926,00</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-218.3600329912745</v>
+        <v>39.29105064652962</v>
       </c>
       <c r="F5" t="n">
-        <v>798.3600329912745</v>
+        <v>-10.29105064652962</v>
       </c>
     </row>
     <row r="6">
@@ -572,18 +572,18 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>560</v>
+        <v>28</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>119874,00</t>
+          <t>119874,0010724,00455,008019,0099,007885,003885,008538,004672,003161,00123741,0011812,00516,009435,00109,008632,004112,005880,004847,001992,00</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-194.1903456528633</v>
+        <v>39.72904448965182</v>
       </c>
       <c r="F6" t="n">
-        <v>754.1903456528632</v>
+        <v>-11.72904448965182</v>
       </c>
     </row>
     <row r="7">
@@ -596,18 +596,18 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>500</v>
+        <v>25</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>123196,00</t>
+          <t>123196,0010231,00479,007844,00117,007771,003632,007854,005568,002900,00125180,0011482,00537,008898,00112,008288,004041,006277,005675,002035,00</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-374.4218975267776</v>
+        <v>29.65729356901391</v>
       </c>
       <c r="F7" t="n">
-        <v>874.4218975267776</v>
+        <v>-4.657293569013909</v>
       </c>
     </row>
     <row r="8">
@@ -620,18 +620,18 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>600</v>
+        <v>30</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>147820,00</t>
+          <t>147820,0010760,00544,008360,00107,007454,003805,007989,004889,003341,00147591,0011993,00553,009477,0098,007878,003982,006516,005064,002229,00</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-199.5861787518838</v>
+        <v>37.94411927891429</v>
       </c>
       <c r="F8" t="n">
-        <v>799.5861787518838</v>
+        <v>-7.944119278914293</v>
       </c>
     </row>
     <row r="9">
@@ -644,18 +644,18 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>520</v>
+        <v>26</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>125009,00</t>
+          <t>125009,0011044,00490,008573,0093,008414,003812,008018,004410,003528,00125664,0012504,00549,009555,0089,008169,004421,006581,004481,002192,00</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-174.2767047321733</v>
+        <v>42.82667671099834</v>
       </c>
       <c r="F9" t="n">
-        <v>694.2767047321734</v>
+        <v>-16.82667671099834</v>
       </c>
     </row>
     <row r="10">
@@ -668,18 +668,18 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>540</v>
+        <v>27</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>134654,00</t>
+          <t>134654,0010362,00579,008287,00154,007513,003571,007141,005388,003307,00135595,0011474,00577,009215,00143,007858,003897,005815,005495,002109,00</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-163.0985745842356</v>
+        <v>40.54570080624829</v>
       </c>
       <c r="F10" t="n">
-        <v>703.0985745842356</v>
+        <v>-13.54570080624829</v>
       </c>
     </row>
     <row r="11">
@@ -692,18 +692,18 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>800</v>
+        <v>40</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>142932,00</t>
+          <t>142932,0011110,00513,009139,00115,008447,003885,007829,004339,003675,00143568,0012050,00568,0010243,00121,008388,004119,006283,004449,002224,00</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>102.6926533037301</v>
+        <v>56.41305052351762</v>
       </c>
       <c r="F11" t="n">
-        <v>697.30734669627</v>
+        <v>-16.41305052351762</v>
       </c>
     </row>
     <row r="12">
@@ -716,18 +716,18 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>640</v>
+        <v>32</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>132580,00</t>
+          <t>132580,0010941,00494,008927,00109,008463,003849,007636,004535,003417,00134167,0011907,00557,0010206,00123,008079,004353,006576,004680,002209,00</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-166.6877380309977</v>
+        <v>40.07310159614415</v>
       </c>
       <c r="F12" t="n">
-        <v>806.6877380309977</v>
+        <v>-8.073101596144149</v>
       </c>
     </row>
     <row r="13">
@@ -740,18 +740,18 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>460</v>
+        <v>23</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>176143,00</t>
+          <t>176143,0011254,00678,009027,00104,007472,003743,007039,005443,003265,00152053,0012099,00613,009874,0097,008015,004019,005895,005079,001906,00</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-164.0852699582249</v>
+        <v>38.7009715935191</v>
       </c>
       <c r="F13" t="n">
-        <v>624.0852699582249</v>
+        <v>-15.7009715935191</v>
       </c>
     </row>
   </sheetData>
@@ -792,13 +792,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>685.2728677715953</v>
+        <v>16.65068709458617</v>
       </c>
       <c r="B2" t="n">
-        <v>122.000164201352</v>
+        <v>57.59116765826515</v>
       </c>
       <c r="C2" t="n">
-        <v>717.6406437716006</v>
+        <v>25.18266896084961</v>
       </c>
     </row>
   </sheetData>

--- a/out/img/core/BR_40_forecast_results_2023.xlsx
+++ b/out/img/core/BR_40_forecast_results_2023.xlsx
@@ -478,16 +478,14 @@
       <c r="C2" t="n">
         <v>29</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>161127,0010593,00538,007774,0060,006770,003384,007356,003626,002773,00178514,0011235,00650,009106,0070,007393,003549,005795,003943,001838,00</t>
-        </is>
+      <c r="D2" t="n">
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.14607303349045</v>
+        <v>85.6014294952854</v>
       </c>
       <c r="F2" t="n">
-        <v>2.853926966509551</v>
+        <v>-56.6014294952854</v>
       </c>
     </row>
     <row r="3">
@@ -502,16 +500,14 @@
       <c r="C3" t="n">
         <v>24</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>126255,009585,00464,006961,0074,006061,003015,006937,004047,002562,00128681,0010226,00554,008069,0084,007386,003207,004682,004220,001441,00</t>
-        </is>
+      <c r="D3" t="n">
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>38.14784237954068</v>
+        <v>72.31260055855948</v>
       </c>
       <c r="F3" t="n">
-        <v>-14.14784237954068</v>
+        <v>-48.31260055855948</v>
       </c>
     </row>
     <row r="4">
@@ -526,16 +522,14 @@
       <c r="C4" t="n">
         <v>31</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>127829,0011477,00490,008237,0080,008008,003926,008547,005320,003277,00129739,0012235,00542,009453,0092,009249,003988,006065,005105,001957,00</t>
-        </is>
+      <c r="D4" t="n">
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>108.6254665744467</v>
+        <v>110.2528909564889</v>
       </c>
       <c r="F4" t="n">
-        <v>-77.62546657444673</v>
+        <v>-79.25289095648888</v>
       </c>
     </row>
     <row r="5">
@@ -550,16 +544,14 @@
       <c r="C5" t="n">
         <v>29</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>145386,0010193,00506,007687,0086,007177,003409,007450,004699,002948,00145202,0010947,00566,008784,0087,007818,003630,005537,005182,001926,00</t>
-        </is>
+      <c r="D5" t="n">
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>39.29105064652962</v>
+        <v>74.87162204434462</v>
       </c>
       <c r="F5" t="n">
-        <v>-10.29105064652962</v>
+        <v>-45.87162204434462</v>
       </c>
     </row>
     <row r="6">
@@ -574,16 +566,14 @@
       <c r="C6" t="n">
         <v>28</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>119874,0010724,00455,008019,0099,007885,003885,008538,004672,003161,00123741,0011812,00516,009435,00109,008632,004112,005880,004847,001992,00</t>
-        </is>
+      <c r="D6" t="n">
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>39.72904448965182</v>
+        <v>69.31789672524627</v>
       </c>
       <c r="F6" t="n">
-        <v>-11.72904448965182</v>
+        <v>-41.31789672524627</v>
       </c>
     </row>
     <row r="7">
@@ -598,16 +588,14 @@
       <c r="C7" t="n">
         <v>25</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>123196,0010231,00479,007844,00117,007771,003632,007854,005568,002900,00125180,0011482,00537,008898,00112,008288,004041,006277,005675,002035,00</t>
-        </is>
+      <c r="D7" t="n">
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>29.65729356901391</v>
+        <v>63.11636771285703</v>
       </c>
       <c r="F7" t="n">
-        <v>-4.657293569013909</v>
+        <v>-38.11636771285703</v>
       </c>
     </row>
     <row r="8">
@@ -622,16 +610,14 @@
       <c r="C8" t="n">
         <v>30</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>147820,0010760,00544,008360,00107,007454,003805,007989,004889,003341,00147591,0011993,00553,009477,0098,007878,003982,006516,005064,002229,00</t>
-        </is>
+      <c r="D8" t="n">
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>37.94411927891429</v>
+        <v>77.59542670934502</v>
       </c>
       <c r="F8" t="n">
-        <v>-7.944119278914293</v>
+        <v>-47.59542670934502</v>
       </c>
     </row>
     <row r="9">
@@ -646,16 +632,14 @@
       <c r="C9" t="n">
         <v>26</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>125009,0011044,00490,008573,0093,008414,003812,008018,004410,003528,00125664,0012504,00549,009555,0089,008169,004421,006581,004481,002192,00</t>
-        </is>
+      <c r="D9" t="n">
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>42.82667671099834</v>
+        <v>77.17464788917684</v>
       </c>
       <c r="F9" t="n">
-        <v>-16.82667671099834</v>
+        <v>-51.17464788917684</v>
       </c>
     </row>
     <row r="10">
@@ -670,16 +654,14 @@
       <c r="C10" t="n">
         <v>27</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>134654,0010362,00579,008287,00154,007513,003571,007141,005388,003307,00135595,0011474,00577,009215,00143,007858,003897,005815,005495,002109,00</t>
-        </is>
+      <c r="D10" t="n">
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>40.54570080624829</v>
+        <v>79.00145279656964</v>
       </c>
       <c r="F10" t="n">
-        <v>-13.54570080624829</v>
+        <v>-52.00145279656964</v>
       </c>
     </row>
     <row r="11">
@@ -694,16 +676,14 @@
       <c r="C11" t="n">
         <v>40</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>142932,0011110,00513,009139,00115,008447,003885,007829,004339,003675,00143568,0012050,00568,0010243,00121,008388,004119,006283,004449,002224,00</t>
-        </is>
+      <c r="D11" t="n">
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>56.41305052351762</v>
+        <v>98.47482414888874</v>
       </c>
       <c r="F11" t="n">
-        <v>-16.41305052351762</v>
+        <v>-58.47482414888874</v>
       </c>
     </row>
     <row r="12">
@@ -718,16 +698,14 @@
       <c r="C12" t="n">
         <v>32</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>132580,0010941,00494,008927,00109,008463,003849,007636,004535,003417,00134167,0011907,00557,0010206,00123,008079,004353,006576,004680,002209,00</t>
-        </is>
+      <c r="D12" t="n">
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>40.07310159614415</v>
+        <v>77.98591913016988</v>
       </c>
       <c r="F12" t="n">
-        <v>-8.073101596144149</v>
+        <v>-45.98591913016988</v>
       </c>
     </row>
     <row r="13">
@@ -742,16 +720,14 @@
       <c r="C13" t="n">
         <v>23</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>176143,0011254,00678,009027,00104,007472,003743,007039,005443,003265,00152053,0012099,00613,009874,0097,008015,004019,005895,005079,001906,00</t>
-        </is>
+      <c r="D13" t="n">
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>38.7009715935191</v>
+        <v>88.80592774512995</v>
       </c>
       <c r="F13" t="n">
-        <v>-15.7009715935191</v>
+        <v>-65.80592774512995</v>
       </c>
     </row>
   </sheetData>
@@ -792,13 +768,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>16.65068709458617</v>
+        <v>52.54258382600514</v>
       </c>
       <c r="B2" t="n">
-        <v>57.59116765826515</v>
+        <v>186.2018732181669</v>
       </c>
       <c r="C2" t="n">
-        <v>25.18266896084961</v>
+        <v>53.64686381954046</v>
       </c>
     </row>
   </sheetData>
